--- a/KBS/Report/FieldLevelValidation-Run0.xlsx
+++ b/KBS/Report/FieldLevelValidation-Run0.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">Application invoked successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with id :PageContent_Login1_txtUsername of User Nameis found and value :4141201 entered successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with id :PageContent_Login1_txtPassword of Passwordis found and value :password0 entered successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :PageContent_Login1_btnSubmit of Submit is found and clicked successfully..</t>
+    <t xml:space="preserve">Element with id :PageContent_Login1_txtUsernameof Login User IDis found and value :4141201 entered successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with id :PageContent_Login1_txtPasswordof Login Passwordis found and value :password0 entered successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :PageContent_Login1_btnSubmitof Login button is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">Login is Successful for Userid: 4141201</t>
@@ -47,43 +47,43 @@
     <t xml:space="preserve">Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with ID :a_3_1_28 of Districts Menu is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :a_3_2_42 of  Clubs Sub menu is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :hlAddClub of Add Club is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :btnCancel of Cancel is found and clicked successfully..</t>
+    <t xml:space="preserve">Element with ID :a_3_1_28of Districts Menu is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :a_3_2_42of  Clubs Sub menu is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :hlAddClubof Add Club is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :btnCancelof Cancel is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">District Clubs is Displayed Successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with id :txtClubName of Club Nameis found and value :Club601 entered successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :btnSave of Save is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Save is Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Delete is Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cancel is Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :btnDelete of Delete is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club601 is Displayed Successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :lblSearchOptionTitle of Find Clubs is found and clicked successfully..</t>
+    <t xml:space="preserve">Element with id :txtClubNameof Club Nameis found and value :Club489 entered successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :btnSaveof Save is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheSave is Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheDelete is Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheCancel is Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :btnDeleteof Delete is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club489 is Displayed Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :lblSearchOptionTitleof FindClub Search List is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">All Pending is clicked successfully</t>
@@ -95,61 +95,61 @@
     <t xml:space="preserve">View Application is clicked successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">The Club Name is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Club Typeis Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The City is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Club Languageis Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sponsoring Club is Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with XPath ://*[@id='pnlNewClubPresidentHeader']/div/b of President Header is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The First Name is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Last Name is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Year Of Birth is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Genderis Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Email Address is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Clear is Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with XPath ://*[@id='pnlNewClubSecretaryHeader']/p/b of Secretary Header is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The New Members is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Transfer Members is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Student Members is Editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Leo Lions is Editable</t>
+    <t xml:space="preserve">TheClub Name is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheClub Typeis Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheCity is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheClub Languageis Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheSponsoring Club is Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with XPath ://*[@id='pnlNewClubPresidentHeader']/div/bof President Header is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheFirst Name is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheLast Name is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheYear Of Birth is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheGenderis Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheEmail Address is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheClear is Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with XPath ://*[@id='pnlNewClubSecretaryHeader']/p/bof Secretary Header is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheNew Members is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheTransfer Members is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheStudent Members is Editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheLeo Lions is Editable</t>
   </si>
   <si>
     <t xml:space="preserve">Check box forClub CriteriaIs present</t>
   </si>
   <si>
-    <t xml:space="preserve">The Comments is Editable</t>
+    <t xml:space="preserve">TheComments is Editable</t>
   </si>
   <si>
     <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
